--- a/room_attribution/resultats/demi_journee_2/planning_presentateurs.xlsx
+++ b/room_attribution/resultats/demi_journee_2/planning_presentateurs.xlsx
@@ -461,27 +461,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>D03 (33 él.)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A101 (27 él.)</t>
+          <t>A012 (38 él.)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>J020 (124 él.)</t>
+          <t>A116 (48 él.)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>A116 (48 él.)</t>
+          <t>I013 (60 él.)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>J007 (11 él.)</t>
+          <t>A116 (30 él.)</t>
         </is>
       </c>
     </row>
@@ -493,7 +493,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>J012 (11 él.)</t>
+          <t>J108 (22 él.)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -503,17 +503,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>J021 (141 él.)</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>A101 (31 él.)</t>
+          <t>J021 (149 él.)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>J204 (14 él.)</t>
+          <t>J022 (24 él.)</t>
         </is>
       </c>
     </row>
@@ -530,22 +530,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>I013 (53 él.)</t>
+          <t>J022 (139 él.)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>J204 (36 él.)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>J107 (19 él.)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>J021 (124 él.)</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>A012 (16 él.)</t>
+          <t>J204 (17 él.)</t>
         </is>
       </c>
     </row>
@@ -557,27 +557,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>J204 (13 él.)</t>
+          <t>A012 (29 él.)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>J020 (124 él.)</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>J109 (38 él.)</t>
+          <t>J022 (167 él.)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>J204 (36 él.)</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>A101 (16 él.)</t>
+          <t>J109 (28 él.)</t>
         </is>
       </c>
     </row>
@@ -589,27 +589,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A116 (47 él.)</t>
+          <t>J007 (19 él.)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>J009 (19 él.)</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>J110 (43 él.)</t>
+          <t>A016 (36 él.)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>J108 (38 él.)</t>
+          <t>J022 (126 él.)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>J022 (49 él.)</t>
+          <t>J110 (13 él.)</t>
         </is>
       </c>
     </row>
@@ -621,27 +621,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>A012 (32 él.)</t>
+          <t>J204 (22 él.)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>J108 (38 él.)</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>J106 (36 él.)</t>
+          <t>J106 (31 él.)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>I013 (58 él.)</t>
+          <t>J020 (126 él.)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>I013 (27 él.)</t>
+          <t>J012 (12 él.)</t>
         </is>
       </c>
     </row>
@@ -653,27 +653,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>I013 (58 él.)</t>
+          <t>J020 (73 él.)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>A012 (38 él.)</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>D03 (96 él.)</t>
+          <t>J012 (23 él.)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>J012 (24 él.)</t>
+          <t>A115 (44 él.)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>J020 (76 él.)</t>
         </is>
       </c>
     </row>
@@ -685,27 +685,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>J020 (44 él.)</t>
+          <t>A016 (37 él.)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>A013 (49 él.)</t>
+          <t>J008 (19 él.)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>A013 (48 él.)</t>
+          <t>D03 (86 él.)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>A012 (38 él.)</t>
+          <t>J110 (43 él.)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>J109 (37 él.)</t>
+          <t>A101 (29 él.)</t>
         </is>
       </c>
     </row>
@@ -717,27 +717,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>A115 (28 él.)</t>
+          <t>J110 (43 él.)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>A016 (38 él.)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>A017 (43 él.)</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>I013 (60 él.)</t>
-        </is>
-      </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>J107 (19 él.)</t>
+          <t>J009 (19 él.)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>A017 (23 él.)</t>
+          <t>J108 (30 él.)</t>
         </is>
       </c>
     </row>
@@ -754,22 +754,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>J021 (148 él.)</t>
+          <t>J021 (141 él.)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>J108 (37 él.)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>J110 (43 él.)</t>
+          <t>J007 (19 él.)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>J107 (17 él.)</t>
+          <t>J008 (11 él.)</t>
         </is>
       </c>
     </row>
@@ -781,27 +781,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>A017 (37 él.)</t>
+          <t>J021 (53 él.)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>A115 (44 él.)</t>
+          <t>J110 (43 él.)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>A115 (43 él.)</t>
+          <t>A115 (45 él.)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>A013 (50 él.)</t>
+          <t>J108 (38 él.)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>A116 (41 él.)</t>
+          <t>I013 (35 él.)</t>
         </is>
       </c>
     </row>
@@ -813,27 +813,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>J021 (69 él.)</t>
+          <t>A116 (43 él.)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>J204 (36 él.)</t>
+          <t>A013 (50 él.)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>A012 (38 él.)</t>
+          <t>I013 (58 él.)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>J009 (19 él.)</t>
+          <t>J109 (37 él.)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>J021 (51 él.)</t>
+          <t>A017 (24 él.)</t>
         </is>
       </c>
     </row>
@@ -845,27 +845,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>J107 (9 él.)</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>J110 (41 él.)</t>
+          <t>J108 (37 él.)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>J022 (109 él.)</t>
+          <t>J021 (152 él.)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>D03 (85 él.)</t>
+          <t>J106 (35 él.)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>J009 (19 él.)</t>
         </is>
       </c>
     </row>
@@ -877,27 +877,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>J108 (27 él.)</t>
+          <t>A013 (47 él.)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>D03 (93 él.)</t>
+          <t>A017 (43 él.)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>J204 (36 él.)</t>
+          <t>A013 (50 él.)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>A017 (42 él.)</t>
+          <t>A013 (50 él.)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>D03 (15 él.)</t>
+          <t>J021 (23 él.)</t>
         </is>
       </c>
     </row>
@@ -909,27 +909,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>J022 (46 él.)</t>
+          <t>A115 (42 él.)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>A016 (38 él.)</t>
+          <t>I013 (60 él.)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>A012 (37 él.)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>A116 (48 él.)</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>A016 (37 él.)</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>A013 (42 él.)</t>
+          <t>A016 (22 él.)</t>
         </is>
       </c>
     </row>
@@ -941,27 +941,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>J007 (19 él.)</t>
+          <t>J106 (25 él.)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>J109 (38 él.)</t>
+          <t>A115 (45 él.)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>J012 (23 él.)</t>
+          <t>J020 (104 él.)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>J022 (143 él.)</t>
+          <t>A012 (38 él.)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>J106 (10 él.)</t>
         </is>
       </c>
     </row>
@@ -973,27 +973,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>A101 (13 él.)</t>
+          <t>J012 (14 él.)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>J106 (34 él.)</t>
+          <t>D03 (96 él.)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>J108 (38 él.)</t>
+          <t>A101 (27 él.)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>J020 (121 él.)</t>
+          <t>D03 (74 él.)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>J009 (5 él.)</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>D03 (51 él.)</t>
+          <t>J022 (49 él.)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1015,17 +1015,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>J110 (41 él.)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>A017 (43 él.)</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>A115 (45 él.)</t>
-        </is>
-      </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>A115 (18 él.)</t>
+          <t>A013 (23 él.)</t>
         </is>
       </c>
     </row>
@@ -1037,27 +1037,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>J009 (12 él.)</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>J022 (118 él.)</t>
+          <t>J020 (118 él.)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>A016 (38 él.)</t>
+          <t>J109 (36 él.)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>J109 (35 él.)</t>
+          <t>J204 (36 él.)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>A012 (13 él.)</t>
         </is>
       </c>
     </row>
@@ -1079,17 +1079,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>J007 (19 él.)</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>A101 (28 él.)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>J020 (9 él.)</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1101,12 +1101,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>A013 (17 él.)</t>
+          <t>I013 (7 él.)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>J008 (18 él.)</t>
+          <t>J012 (24 él.)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1116,12 +1116,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>J008 (16 él.)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>A016 (14 él.)</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1138,17 +1138,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>J009 (19 él.)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>J107 (19 él.)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>J106 (36 él.)</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>J110 (38 él.)</t>
+          <t>J109 (14 él.)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1180,12 +1180,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>J007 (19 él.)</t>
+          <t>A016 (36 él.)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>J007 (6 él.)</t>
         </is>
       </c>
     </row>
@@ -1197,17 +1197,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>A016 (16 él.)</t>
+          <t>J008 (12 él.)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>J107 (19 él.)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>J008 (19 él.)</t>
+          <t>J008 (4 él.)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1229,12 +1229,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>J008 (14 él.)</t>
+          <t>A017 (10 él.)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>J007 (19 él.)</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1244,12 +1244,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>J012 (24 él.)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>J008 (6 él.)</t>
+          <t>J107 (2 él.)</t>
         </is>
       </c>
     </row>
@@ -1261,12 +1261,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>A101 (21 él.)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>J012 (24 él.)</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1281,7 +1281,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>J110 (17 él.)</t>
+          <t>A115 (19 él.)</t>
         </is>
       </c>
     </row>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>J109 (30 él.)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>J012 (8 él.)</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1330,12 +1330,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>J107 (18 él.)</t>
+          <t>J106 (33 él.)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>A101 (30 él.)</t>
+          <t>J009 (14 él.)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1362,12 +1362,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>A101 (24 él.)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>J009 (19 él.)</t>
+          <t>J007 (14 él.)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>J108 (18 él.)</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1389,12 +1389,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>J109 (14 él.)</t>
+          <t>J009 (7 él.)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>J204 (25 él.)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1404,7 +1404,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>J008 (17 él.)</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1421,12 +1421,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>J106 (20 él.)</t>
+          <t>J107 (13 él.)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>J007 (19 él.)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1441,7 +1441,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>J106 (19 él.)</t>
+          <t>D03 (7 él.)</t>
         </is>
       </c>
     </row>
